--- a/Excel/fdf/Flock Metadata.xlsx
+++ b/Excel/fdf/Flock Metadata.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CBB1CC-0992-46B2-BBE7-987B927BF960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA98430-422A-46F3-832B-6480284E6EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="76">
   <si>
     <t>INTEGRATOR_FLOCK_ID</t>
   </si>
@@ -136,12 +147,93 @@
     <t>OUT_TIME_DAYS</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>1.009545645</t>
+  </si>
+  <si>
+    <t>1.0011545645</t>
+  </si>
+  <si>
+    <t>1.00125456</t>
+  </si>
+  <si>
+    <t>0.96855</t>
+  </si>
+  <si>
+    <t>0.0315</t>
+  </si>
+  <si>
+    <t>1.0013</t>
+  </si>
+  <si>
+    <t>54.675</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>9.50</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>1.001</t>
+  </si>
+  <si>
+    <t>0.0016</t>
+  </si>
+  <si>
+    <t>0.0017</t>
+  </si>
+  <si>
+    <t>1.0018</t>
+  </si>
+  <si>
+    <t>LRLBL0227-1033011</t>
+  </si>
+  <si>
+    <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2021-05-25</t>
+  </si>
+  <si>
+    <t>1001160</t>
+  </si>
+  <si>
+    <t>1001186</t>
+  </si>
+  <si>
+    <t>BIRD_SIZE</t>
+  </si>
+  <si>
+    <t>6/06/2021</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>1033011</t>
-  </si>
-  <si>
     <t>1001001</t>
   </si>
   <si>
@@ -154,16 +246,7 @@
     <t>1001159</t>
   </si>
   <si>
-    <t>1001066</t>
-  </si>
-  <si>
-    <t>1001078</t>
-  </si>
-  <si>
-    <t>6/06/2021</t>
-  </si>
-  <si>
-    <t>2021-06-10</t>
+    <t>1001188</t>
   </si>
   <si>
     <t>2021-06-01</t>
@@ -172,31 +255,10 @@
     <t>2021-06-05</t>
   </si>
   <si>
-    <t>2021-05-25</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1001160</t>
-  </si>
-  <si>
-    <t>1001188</t>
-  </si>
-  <si>
-    <t>1001186</t>
+    <t>2021-12-12</t>
   </si>
 </sst>
 </file>
@@ -233,8 +295,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,13 +644,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM11" sqref="AM11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="19.796875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="7.796875" collapsed="true"/>
@@ -590,7 +660,7 @@
     <col min="6" max="6" customWidth="true" width="9.796875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="8.796875" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="10.796875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.796875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.8984375" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="18.796875" collapsed="true"/>
     <col min="11" max="12" customWidth="true" width="19.796875" collapsed="true"/>
     <col min="13" max="14" customWidth="true" width="25.796875" collapsed="true"/>
@@ -610,11 +680,12 @@
     <col min="34" max="34" customWidth="true" width="14.796875" collapsed="true"/>
     <col min="35" max="35" customWidth="true" width="7.796875" collapsed="true"/>
     <col min="36" max="36" customWidth="true" width="17.796875" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="25.796875" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="27.3984375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="15.09765625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="1" width="9.796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -729,52 +800,118 @@
       <c r="AL1" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
+    <row r="2" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2" t="s">
-        <v>55</v>
+      <c r="AL2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
